--- a/Otros documentos/Documentación/Product_Backlog_CatchAI.xlsx
+++ b/Otros documentos/Documentación/Product_Backlog_CatchAI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\archivos capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{022ECECE-8D58-4641-8D96-00A6FE865CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB92A41B-6A48-404A-A1B8-E1FF5ED4A0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -97,30 +97,6 @@
     <t>Escalabilidad</t>
   </si>
   <si>
-    <t>Como persona sorda, quiero recibir la traducción de un video en LSCh.</t>
-  </si>
-  <si>
-    <t>Como persona sorda, quiero que las palabras no reconocidas se deletreen.</t>
-  </si>
-  <si>
-    <t>Como persona sorda, quiero que el avatar tenga estilo uniforme y semi-formal.</t>
-  </si>
-  <si>
-    <t>Como locutor, quiero enviar un video y obtener traducción en LSCh.</t>
-  </si>
-  <si>
-    <t>Como administrador, quiero que cada procesamiento genere un log.</t>
-  </si>
-  <si>
-    <t>Como administrador, quiero que el sistema funcione en computadores locales.</t>
-  </si>
-  <si>
-    <t>Como Canal 13C, quiero validar el MVP en un piloto.</t>
-  </si>
-  <si>
-    <t>Como stakeholder, quiero que el sistema sea escalable.</t>
-  </si>
-  <si>
     <t>Futuro</t>
   </si>
   <si>
@@ -148,33 +124,9 @@
     <t>Diseño modular de arquitectura</t>
   </si>
   <si>
-    <t>2025-08-10</t>
-  </si>
-  <si>
-    <t>2025-09-15</t>
-  </si>
-  <si>
-    <t>2025-09-29</t>
-  </si>
-  <si>
-    <t>2025-10-20</t>
-  </si>
-  <si>
     <t>Post-MVP</t>
   </si>
   <si>
-    <t>2025-09-28</t>
-  </si>
-  <si>
-    <t>2025-10-19</t>
-  </si>
-  <si>
-    <t>2025-11-09</t>
-  </si>
-  <si>
-    <t>2025-09-07</t>
-  </si>
-  <si>
     <t>Luis Gómez</t>
   </si>
   <si>
@@ -184,36 +136,9 @@
     <t>Equipo completo</t>
   </si>
   <si>
-    <t>Luis Gómez / Marcos Bombalás</t>
-  </si>
-  <si>
     <t>Eyleen Collado / Canal 13C</t>
   </si>
   <si>
-    <t>El sistema devuelve un video con avatar ejecutando señas comprensibles.</t>
-  </si>
-  <si>
-    <t>Toda palabra no reconocida debe representarse en LSCh.</t>
-  </si>
-  <si>
-    <t>Avatar coherente y sin distracciones visuales.</t>
-  </si>
-  <si>
-    <t>Endpoint /process/video devuelve salida en ≤10s por minuto procesado.</t>
-  </si>
-  <si>
-    <t>100% de solicitudes registradas en logs cifrados.</t>
-  </si>
-  <si>
-    <t>El sistema corre en Linux y Windows en hardware propio.</t>
-  </si>
-  <si>
-    <t>Procesamiento de 5 minutos en ≤60s.</t>
-  </si>
-  <si>
-    <t>Arquitectura preparada para crecer en vocabulario/animaciones.</t>
-  </si>
-  <si>
     <t>To Do</t>
   </si>
   <si>
@@ -224,6 +149,57 @@
   </si>
   <si>
     <t>Backlog</t>
+  </si>
+  <si>
+    <t>Marcos Bombalas</t>
+  </si>
+  <si>
+    <t>El sistema devuelve un video con avatar cuyas señas alcanzan ≥80% en una rúbrica interna (configuración de manos, orientación y transiciones), evaluada por 2 revisores independientes; se conserva resolución y duración del original, y se adjunta evidencia en video.</t>
+  </si>
+  <si>
+    <t>Como operador/mediador de comunicación, quiero que las palabras fuera de diccionario se representen mediante deletreo en LSCh para mantener continuidad.</t>
+  </si>
+  <si>
+    <t>Ante palabras no reconocidas, el sistema aplica deletreo LSCh con sincronía ±300 ms respecto del audio; en un set de 30 frases de prueba, el 100% de los términos fuera de diccionario se deletrea; cada evento queda registrado en log con marca de tiempo.</t>
+  </si>
+  <si>
+    <t>Como operador/mediador de comunicación, quiero que el avatar mantenga estilo uniforme y semi-formal para evitar distracciones en el contenido.</t>
+  </si>
+  <si>
+    <t>Checklist de coherencia aprobado (postura base, vestimenta sobria, paleta neutra, velocidad y suavidad de transiciones); sin clipping visible ni deformaciones en 3 animaciones de referencia; exportación GLB/FBX reproducible en Godot con la misma apariencia.</t>
+  </si>
+  <si>
+    <t>Como locutor, quiero enviar un video y obtener traducción en LSCh para revisión rápida.</t>
+  </si>
+  <si>
+    <t>Endpoint /process/video operativo; tiempo de procesamiento ≤10 s por minuto de video en equipo base; tasa de error de transcripción ≤15% en test de 5 min; logging activado por solicitud.</t>
+  </si>
+  <si>
+    <t>Como administrador, quiero que cada procesamiento genere un log trazable para auditoría y soporte.</t>
+  </si>
+  <si>
+    <t>100% de solicitudes con trace-id, timestamps y resultado (éxito/fallo); persistencia local en archivos cifrados/rotados; sin datos personales en texto plano.</t>
+  </si>
+  <si>
+    <t>Como administrador, quiero que el sistema funcione en computadores locales para operar sin nube.</t>
+  </si>
+  <si>
+    <t>Ejecución validada en Linux y Windows en hardware propio (CPU; GPU opcional); instalación por script y guía de uso; prueba de humo procesa 1 min de video sin errores.</t>
+  </si>
+  <si>
+    <t>Como Canal 13C, quiero validar el MVP en un piloto para evaluar su utilidad en un bloque de noticias.</t>
+  </si>
+  <si>
+    <t>Procesamiento de 5 minutos de contenido en ≤60 s; acta de evaluación de Canal 13C con observaciones y propuesta de mejoras priorizadas.</t>
+  </si>
+  <si>
+    <t>Como stakeholder, quiero que el sistema sea escalable para ampliar vocabulario y animaciones en el futuro.</t>
+  </si>
+  <si>
+    <t>Arquitectura modular documentada; diccionario y animaciones desacopladas; prueba de incorporación de 10 señas nuevas sin retrabajo en módulos existentes.</t>
+  </si>
+  <si>
+    <t>Como operador/mediador de comunicación (asistente de Canal 13C), quiero recibir la traducción de un video a LSCh para validarla y usarla en contenidos.</t>
   </si>
 </sst>
 </file>
@@ -280,13 +256,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -294,34 +273,37 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -329,9 +311,6 @@
           <color auto="1"/>
         </top>
       </border>
-    </dxf>
-    <dxf>
-      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -383,19 +362,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF3A5BE8-0920-4715-8E50-B6DBC08EBFE4}" name="Tabla1" displayName="Tabla1" ref="A1:J9" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF3A5BE8-0920-4715-8E50-B6DBC08EBFE4}" name="Tabla1" displayName="Tabla1" ref="A1:J9" totalsRowShown="0" headerRowDxfId="13" dataDxfId="0" headerRowBorderDxfId="12" tableBorderDxfId="11">
   <autoFilter ref="A1:J9" xr:uid="{FF3A5BE8-0920-4715-8E50-B6DBC08EBFE4}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{A691DB41-DABD-42E6-9C75-C7F0B5898DBB}" name="ID" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{FB77EA10-72C2-4461-849B-F8588D89A0F7}" name="Épica" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{F4B6794B-78E8-43BC-9AB3-1F79A0B32767}" name="Historia de Usuario" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{6F19D291-D870-44E8-8059-A40BA7A51B0E}" name="Sprint" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{1FADD849-19B3-4638-85AC-312C2B63C275}" name="Actividad (Gantt)" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{688D7250-14F5-4EE8-9AE1-72CE0B292295}" name="Fecha Inicio" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{F78EC22E-0DFD-45CA-9677-1BF5B52BC045}" name="Fecha Fin" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{9E626DD1-A380-4187-93A6-3A31731AE9A6}" name="Responsable" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{401ADF02-CD05-4D46-A1A8-FD5F3E941C6B}" name="Criterio de Aceptación" dataDxfId="1"/>
-    <tableColumn id="10" xr3:uid="{54DFBF87-6BD6-4F84-A191-2780DC67DF3C}" name="Estado" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{A691DB41-DABD-42E6-9C75-C7F0B5898DBB}" name="ID" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{FB77EA10-72C2-4461-849B-F8588D89A0F7}" name="Épica" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{F4B6794B-78E8-43BC-9AB3-1F79A0B32767}" name="Historia de Usuario" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{6F19D291-D870-44E8-8059-A40BA7A51B0E}" name="Sprint" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{1FADD849-19B3-4638-85AC-312C2B63C275}" name="Actividad (Gantt)" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{688D7250-14F5-4EE8-9AE1-72CE0B292295}" name="Fecha Inicio" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{F78EC22E-0DFD-45CA-9677-1BF5B52BC045}" name="Fecha Fin" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{9E626DD1-A380-4187-93A6-3A31731AE9A6}" name="Responsable" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{401ADF02-CD05-4D46-A1A8-FD5F3E941C6B}" name="Criterio de Aceptación" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{54DFBF87-6BD6-4F84-A191-2780DC67DF3C}" name="Estado" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -691,7 +670,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -702,7 +681,7 @@
     <col min="6" max="6" width="12.77734375" customWidth="1"/>
     <col min="7" max="7" width="10.6640625" customWidth="1"/>
     <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="34.6640625" customWidth="1"/>
+    <col min="9" max="9" width="46.88671875" customWidth="1"/>
     <col min="10" max="10" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -738,7 +717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -746,31 +725,31 @@
         <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>47</v>
+        <v>26</v>
+      </c>
+      <c r="F2" s="3">
+        <v>45879</v>
+      </c>
+      <c r="G2" s="3">
+        <v>45928</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -778,31 +757,31 @@
         <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="3">
+        <v>45915</v>
+      </c>
+      <c r="G3" s="3">
+        <v>45928</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="I3" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -810,31 +789,31 @@
         <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="3">
+        <v>45929</v>
+      </c>
+      <c r="G4" s="3">
+        <v>45949</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="J4" s="2" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -842,28 +821,28 @@
         <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>47</v>
+        <v>29</v>
+      </c>
+      <c r="F5" s="3">
+        <v>45879</v>
+      </c>
+      <c r="G5" s="3">
+        <v>45928</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -874,31 +853,31 @@
         <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>48</v>
+        <v>30</v>
+      </c>
+      <c r="F6" s="3">
+        <v>45929</v>
+      </c>
+      <c r="G6" s="3">
+        <v>45949</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -906,31 +885,31 @@
         <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
+      </c>
+      <c r="F7" s="3">
+        <v>45879</v>
+      </c>
+      <c r="G7" s="3">
+        <v>45907</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -938,31 +917,31 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="D8" s="2">
         <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>49</v>
+        <v>32</v>
+      </c>
+      <c r="F8" s="3">
+        <v>45950</v>
+      </c>
+      <c r="G8" s="3">
+        <v>45970</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -970,28 +949,28 @@
         <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="F9" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>67</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Otros documentos/Documentación/Product_Backlog_CatchAI.xlsx
+++ b/Otros documentos/Documentación/Product_Backlog_CatchAI.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\archivos capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okaed\OneDrive\Desktop\repos\CatchAI\Otros documentos\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB92A41B-6A48-404A-A1B8-E1FF5ED4A0A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3747AFD8-8BC0-4851-BA00-F8553D13D853}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -139,39 +144,18 @@
     <t>Eyleen Collado / Canal 13C</t>
   </si>
   <si>
-    <t>To Do</t>
-  </si>
-  <si>
-    <t>In Progress</t>
-  </si>
-  <si>
     <t>Done</t>
   </si>
   <si>
-    <t>Backlog</t>
-  </si>
-  <si>
     <t>Marcos Bombalas</t>
   </si>
   <si>
-    <t>El sistema devuelve un video con avatar cuyas señas alcanzan ≥80% en una rúbrica interna (configuración de manos, orientación y transiciones), evaluada por 2 revisores independientes; se conserva resolución y duración del original, y se adjunta evidencia en video.</t>
-  </si>
-  <si>
-    <t>Como operador/mediador de comunicación, quiero que las palabras fuera de diccionario se representen mediante deletreo en LSCh para mantener continuidad.</t>
-  </si>
-  <si>
-    <t>Ante palabras no reconocidas, el sistema aplica deletreo LSCh con sincronía ±300 ms respecto del audio; en un set de 30 frases de prueba, el 100% de los términos fuera de diccionario se deletrea; cada evento queda registrado en log con marca de tiempo.</t>
-  </si>
-  <si>
     <t>Como operador/mediador de comunicación, quiero que el avatar mantenga estilo uniforme y semi-formal para evitar distracciones en el contenido.</t>
   </si>
   <si>
     <t>Checklist de coherencia aprobado (postura base, vestimenta sobria, paleta neutra, velocidad y suavidad de transiciones); sin clipping visible ni deformaciones en 3 animaciones de referencia; exportación GLB/FBX reproducible en Godot con la misma apariencia.</t>
   </si>
   <si>
-    <t>Como locutor, quiero enviar un video y obtener traducción en LSCh para revisión rápida.</t>
-  </si>
-  <si>
     <t>Endpoint /process/video operativo; tiempo de procesamiento ≤10 s por minuto de video en equipo base; tasa de error de transcripción ≤15% en test de 5 min; logging activado por solicitud.</t>
   </si>
   <si>
@@ -196,10 +180,22 @@
     <t>Como stakeholder, quiero que el sistema sea escalable para ampliar vocabulario y animaciones en el futuro.</t>
   </si>
   <si>
-    <t>Arquitectura modular documentada; diccionario y animaciones desacopladas; prueba de incorporación de 10 señas nuevas sin retrabajo en módulos existentes.</t>
-  </si>
-  <si>
-    <t>Como operador/mediador de comunicación (asistente de Canal 13C), quiero recibir la traducción de un video a LSCh para validarla y usarla en contenidos.</t>
+    <t>Como locutor/animador, quiero enviar un video con mi voz y obtener su representación visual en Español Signado, para que mi mensaje llegue de forma más accesible.</t>
+  </si>
+  <si>
+    <t>Como operador/mediador de comunicación (asistente de producción), quiero recibir la representación visual en Español Signado de un video, para comprender la información transmitida.</t>
+  </si>
+  <si>
+    <t>Como operador/mediador de comunicación (asistente de producción), quiero que las palabras no reconocidas sean deletreadas visualmente, para no perder el sentido del mensaje.</t>
+  </si>
+  <si>
+    <t>El sistema deberá devolver un video con avatar cuyas representaciones visuales sean comprensibles y coherentes según rúbrica interna (≥80% de cumplimiento en claridad de configuración de manos, orientación y transición), validadas por un evaluador independiente.</t>
+  </si>
+  <si>
+    <t>Si una palabra no está en el diccionario base del Español Signado, el sistema deberá aplicar deletreo visual adaptado manteniendo ritmo y sincronía con el audio.</t>
+  </si>
+  <si>
+    <t>Arquitectura modular documentada; diccionario y animaciones desacopladas; prueba de incorporación de 10 animaciones nuevas sin retrabajo en módulos existentes.</t>
   </si>
 </sst>
 </file>
@@ -303,14 +299,14 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <top style="thin">
           <color auto="1"/>
         </top>
       </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -362,19 +358,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF3A5BE8-0920-4715-8E50-B6DBC08EBFE4}" name="Tabla1" displayName="Tabla1" ref="A1:J9" totalsRowShown="0" headerRowDxfId="13" dataDxfId="0" headerRowBorderDxfId="12" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FF3A5BE8-0920-4715-8E50-B6DBC08EBFE4}" name="Tabla1" displayName="Tabla1" ref="A1:J9" totalsRowShown="0" headerRowDxfId="13" dataDxfId="11" headerRowBorderDxfId="12" tableBorderDxfId="10">
   <autoFilter ref="A1:J9" xr:uid="{FF3A5BE8-0920-4715-8E50-B6DBC08EBFE4}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{A691DB41-DABD-42E6-9C75-C7F0B5898DBB}" name="ID" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{FB77EA10-72C2-4461-849B-F8588D89A0F7}" name="Épica" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{F4B6794B-78E8-43BC-9AB3-1F79A0B32767}" name="Historia de Usuario" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{6F19D291-D870-44E8-8059-A40BA7A51B0E}" name="Sprint" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{1FADD849-19B3-4638-85AC-312C2B63C275}" name="Actividad (Gantt)" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{688D7250-14F5-4EE8-9AE1-72CE0B292295}" name="Fecha Inicio" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{F78EC22E-0DFD-45CA-9677-1BF5B52BC045}" name="Fecha Fin" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{9E626DD1-A380-4187-93A6-3A31731AE9A6}" name="Responsable" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{401ADF02-CD05-4D46-A1A8-FD5F3E941C6B}" name="Criterio de Aceptación" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{54DFBF87-6BD6-4F84-A191-2780DC67DF3C}" name="Estado" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{A691DB41-DABD-42E6-9C75-C7F0B5898DBB}" name="ID" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{FB77EA10-72C2-4461-849B-F8588D89A0F7}" name="Épica" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{F4B6794B-78E8-43BC-9AB3-1F79A0B32767}" name="Historia de Usuario" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{6F19D291-D870-44E8-8059-A40BA7A51B0E}" name="Sprint" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{1FADD849-19B3-4638-85AC-312C2B63C275}" name="Actividad (Gantt)" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{688D7250-14F5-4EE8-9AE1-72CE0B292295}" name="Fecha Inicio" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{F78EC22E-0DFD-45CA-9677-1BF5B52BC045}" name="Fecha Fin" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{9E626DD1-A380-4187-93A6-3A31731AE9A6}" name="Responsable" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{401ADF02-CD05-4D46-A1A8-FD5F3E941C6B}" name="Criterio de Aceptación" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{54DFBF87-6BD6-4F84-A191-2780DC67DF3C}" name="Estado" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -669,23 +665,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="I15" sqref="I14:I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="38.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="46.88671875" customWidth="1"/>
-    <col min="10" max="10" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.07421875" customWidth="1"/>
+    <col min="3" max="3" width="38.3046875" customWidth="1"/>
+    <col min="5" max="5" width="26.69140625" customWidth="1"/>
+    <col min="6" max="6" width="12.765625" customWidth="1"/>
+    <col min="7" max="7" width="10.69140625" customWidth="1"/>
+    <col min="8" max="8" width="13.4609375" customWidth="1"/>
+    <col min="9" max="9" width="46.84375" customWidth="1"/>
+    <col min="10" max="10" width="12.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,7 +713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="87.45" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -725,7 +721,7 @@
         <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -743,13 +739,13 @@
         <v>35</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -757,7 +753,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -775,13 +771,13 @@
         <v>35</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -789,7 +785,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
@@ -807,13 +803,13 @@
         <v>36</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="72.900000000000006" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -821,7 +817,7 @@
         <v>20</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
@@ -839,13 +835,13 @@
         <v>35</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -853,7 +849,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2">
         <v>2</v>
@@ -868,16 +864,16 @@
         <v>45949</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -885,7 +881,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -900,16 +896,16 @@
         <v>45907</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -917,7 +913,7 @@
         <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2">
         <v>3</v>
@@ -935,13 +931,13 @@
         <v>38</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
@@ -949,7 +945,7 @@
         <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>25</v>
@@ -967,10 +963,10 @@
         <v>37</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
